--- a/data/processed/contrasts.xlsx
+++ b/data/processed/contrasts.xlsx
@@ -12,15 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="contrastsAim1" sheetId="1" r:id="rId1"/>
-    <sheet name="contrastsAim2" sheetId="2" r:id="rId2"/>
+    <sheet name="contrastsAim1" sheetId="3" r:id="rId1"/>
+    <sheet name="contrastsAim2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="34">
   <si>
     <t>contrast</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>upperCL</t>
-  </si>
-  <si>
-    <t>p.adjustBon</t>
   </si>
   <si>
     <t>p.adjustBH</t>
@@ -132,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -614,9 +611,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -662,27 +659,16 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="16">
     <dxf>
       <font>
-        <b/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -697,19 +683,25 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -734,14 +726,13 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,44 +748,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:M31" totalsRowShown="0">
-  <autoFilter ref="A1:M31"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:L31" totalsRowShown="0">
+  <autoFilter ref="A1:L31"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="contrast"/>
     <tableColumn id="2" name="metabolite"/>
     <tableColumn id="3" name="genotype"/>
-    <tableColumn id="4" name="beta" dataDxfId="14"/>
-    <tableColumn id="5" name="se" dataDxfId="15"/>
+    <tableColumn id="4" name="beta" dataDxfId="10"/>
+    <tableColumn id="5" name="se" dataDxfId="11"/>
     <tableColumn id="6" name="numDF"/>
     <tableColumn id="7" name="denDF"/>
-    <tableColumn id="8" name="F.value" dataDxfId="13"/>
-    <tableColumn id="9" name="p.value" dataDxfId="11"/>
-    <tableColumn id="10" name="lowerCL" dataDxfId="12"/>
-    <tableColumn id="11" name="upperCL" dataDxfId="10"/>
-    <tableColumn id="12" name="p.adjustBon" dataDxfId="9"/>
-    <tableColumn id="13" name="p.adjustBH" dataDxfId="8"/>
+    <tableColumn id="8" name="F.value" dataDxfId="15"/>
+    <tableColumn id="9" name="p.value" dataDxfId="13"/>
+    <tableColumn id="10" name="lowerCL" dataDxfId="14"/>
+    <tableColumn id="11" name="upperCL" dataDxfId="9"/>
+    <tableColumn id="12" name="p.adjustBH" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M31" totalsRowShown="0">
-  <autoFilter ref="A1:M31"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:L31" totalsRowShown="0">
+  <autoFilter ref="A1:L31"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="contrast"/>
     <tableColumn id="2" name="metabolite"/>
     <tableColumn id="3" name="genotype"/>
-    <tableColumn id="4" name="beta" dataDxfId="6"/>
-    <tableColumn id="5" name="se" dataDxfId="7"/>
+    <tableColumn id="4" name="beta" dataDxfId="1"/>
+    <tableColumn id="5" name="se" dataDxfId="2"/>
     <tableColumn id="6" name="numDF"/>
     <tableColumn id="7" name="denDF"/>
-    <tableColumn id="8" name="F.value" dataDxfId="5"/>
-    <tableColumn id="9" name="p.value" dataDxfId="3"/>
-    <tableColumn id="10" name="lowerCL" dataDxfId="4"/>
-    <tableColumn id="11" name="upperCL" dataDxfId="2"/>
-    <tableColumn id="12" name="p.adjustBon" dataDxfId="1"/>
-    <tableColumn id="13" name="p.adjustBH" dataDxfId="0"/>
+    <tableColumn id="8" name="F.value" dataDxfId="7"/>
+    <tableColumn id="9" name="p.value" dataDxfId="5"/>
+    <tableColumn id="10" name="lowerCL" dataDxfId="6"/>
+    <tableColumn id="11" name="upperCL" dataDxfId="4"/>
+    <tableColumn id="12" name="p.adjustBH" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1063,28 +1052,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1084,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1109,7 +1099,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1118,28 +1108,25 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.27750262800091702</v>
+      <c r="D2" s="2">
+        <v>3.6039489060143399</v>
       </c>
       <c r="E2" s="1">
-        <v>0.33017257523763599</v>
+        <v>0.67584514535631701</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1148,39 +1135,36 @@
         <v>38</v>
       </c>
       <c r="H2" s="1">
-        <v>0.70640246566340603</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.40589820123949399</v>
+        <v>28.4356299185579</v>
+      </c>
+      <c r="I2" s="3">
+        <v>4.6797284329046999E-6</v>
       </c>
       <c r="J2" s="1">
-        <v>-0.36962372814769001</v>
+        <v>2.2793167619897199</v>
       </c>
       <c r="K2" s="1">
-        <v>0.92462898414952499</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.92858105003896</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1.4039185298714101E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-0.239879459895354</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-1.5317981022487099</v>
       </c>
       <c r="E3" s="1">
-        <v>0.320971420097513</v>
+        <v>0.65726717835618198</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1189,39 +1173,36 @@
         <v>38</v>
       </c>
       <c r="H3" s="1">
-        <v>0.55853886375980499</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.45944942520809401</v>
+        <v>5.4314922345062904</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.5184752973560601E-2</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.86897188335315501</v>
+        <v>-2.8200181000470899</v>
       </c>
       <c r="K3" s="1">
-        <v>0.389212963562447</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.24357810445033101</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.12592376486780299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7.3969125663141705E-2</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.82639771404678397</v>
       </c>
       <c r="E4" s="1">
-        <v>0.330172261744544</v>
+        <v>0.67592960509750399</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1230,39 +1211,36 @@
         <v>38</v>
       </c>
       <c r="H4" s="1">
-        <v>5.01903010889862E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.82393264570984004</v>
+        <v>1.49477311231535</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.22900636738246199</v>
       </c>
       <c r="J4" s="1">
-        <v>-0.573156616050297</v>
+        <v>-0.49839996802870601</v>
       </c>
       <c r="K4" s="1">
-        <v>0.72109486737658002</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.1511953961222701</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.45650512890092898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>7.06992051969948E-3</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.1577373034702194E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.33017232853071998</v>
+        <v>0.67583890130175805</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1271,39 +1249,36 @@
         <v>38</v>
       </c>
       <c r="H5" s="1">
-        <v>4.5850884476864799E-4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.98302839211577497</v>
+        <v>1.45697822006831E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.90456040794182702</v>
       </c>
       <c r="J5" s="1">
-        <v>-0.64005595209223798</v>
+        <v>-1.24304253286786</v>
       </c>
       <c r="K5" s="1">
-        <v>0.654195793131637</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.4061972789372701</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.93575214614671698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-6.0017622076409899E-2</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.77872445955012604</v>
       </c>
       <c r="E6" s="1">
-        <v>0.32097162343275898</v>
+        <v>0.65728448271474205</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1312,39 +1287,36 @@
         <v>38</v>
       </c>
       <c r="H6" s="1">
-        <v>3.4964255993701697E-2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.85266536303028695</v>
+        <v>1.4036566029928701</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.243469402080496</v>
       </c>
       <c r="J6" s="1">
-        <v>-0.68911044406396904</v>
+        <v>-2.0669783732680602</v>
       </c>
       <c r="K6" s="1">
-        <v>0.56907519991114897</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.50952945416780804</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.45650512890092898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-5.8223961131973496E-3</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-8.2550058747022301E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.32097149358066801</v>
+        <v>0.65725004294223499</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1353,39 +1325,36 @@
         <v>38</v>
       </c>
       <c r="H7" s="1">
-        <v>3.29056572965232E-4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.98562214724863795</v>
+        <v>1.5775151073194701E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.90071138066069301</v>
       </c>
       <c r="J7" s="1">
-        <v>-0.63491496359533495</v>
+        <v>-1.3707364717512101</v>
       </c>
       <c r="K7" s="1">
-        <v>0.62327017136894103</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.20563635425716</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.93575214614671698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.9394820747501599E-2</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.14594931482949</v>
       </c>
       <c r="E8" s="1">
-        <v>0.33017253652835599</v>
+        <v>0.67588364018157998</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1394,39 +1363,36 @@
         <v>38</v>
       </c>
       <c r="H8" s="1">
-        <v>3.4505605106298202E-3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.95346585387011595</v>
+        <v>4.6629445618817301E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.83019063321154996</v>
       </c>
       <c r="J8" s="1">
-        <v>-0.62773145953231202</v>
+        <v>-1.17875827766624</v>
       </c>
       <c r="K8" s="1">
-        <v>0.66652110102731599</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.47065690732521</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.93511524296490101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-0.13942941690351601</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.81447753075710105</v>
       </c>
       <c r="E9" s="1">
-        <v>0.32097145904948199</v>
+        <v>0.65728522661884003</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1435,39 +1401,36 @@
         <v>38</v>
       </c>
       <c r="H9" s="1">
-        <v>0.18870177678554101</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.66645610193596705</v>
+        <v>1.5355023078746901</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.22288776640475599</v>
       </c>
       <c r="J9" s="1">
-        <v>-0.76852191670577297</v>
+        <v>-2.1027329025002701</v>
       </c>
       <c r="K9" s="1">
-        <v>0.489663082898741</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.47377784098607201</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.45650512890092898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-3.8463726964084198E-2</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-0.99252078584321202</v>
       </c>
       <c r="E10" s="1">
-        <v>0.32097139249650197</v>
+        <v>0.65730312228298704</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1476,39 +1439,36 @@
         <v>38</v>
       </c>
       <c r="H10" s="1">
-        <v>1.43605169371384E-2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.90524490034176897</v>
+        <v>2.2800681655013801</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.13931734511963101</v>
       </c>
       <c r="J10" s="1">
-        <v>-0.66755609632489898</v>
+        <v>-2.2808112324435901</v>
       </c>
       <c r="K10" s="1">
-        <v>0.59062864239672996</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.29576966075716898</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.41795203535889403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.133554097517535</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.43962671179763</v>
       </c>
       <c r="E11" s="1">
-        <v>0.33017254501257898</v>
+        <v>0.67599426057713596</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1517,39 +1477,36 @@
         <v>38</v>
       </c>
       <c r="H11" s="1">
-        <v>0.16361854233819401</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.68811448961946098</v>
+        <v>4.5353809879871001</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.9738087579449202E-2</v>
       </c>
       <c r="J11" s="1">
-        <v>-0.51357219939105003</v>
+        <v>0.114702307310657</v>
       </c>
       <c r="K11" s="1">
-        <v>0.78068039442612003</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7645511162846002</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.17030608962621099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-9.6360434579410806E-2</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.876639797069652</v>
       </c>
       <c r="E12" s="1">
-        <v>0.320971520405053</v>
+        <v>0.65724493230610703</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1558,39 +1515,36 @@
         <v>38</v>
       </c>
       <c r="H12" s="1">
-        <v>9.0128989321272293E-2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.76564951752583699</v>
+        <v>1.77904884785629</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.19020587345187701</v>
       </c>
       <c r="J12" s="1">
-        <v>-0.72545305463637899</v>
+        <v>-2.1648161934110899</v>
       </c>
       <c r="K12" s="1">
-        <v>0.53273218547755696</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.41153659927178399</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.45650512890092898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-0.12220098172836</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.52759617607131704</v>
       </c>
       <c r="E13" s="1">
-        <v>0.33017249374317498</v>
+        <v>0.67590135248709404</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1599,39 +1553,36 @@
         <v>38</v>
       </c>
       <c r="H13" s="1">
-        <v>0.136983295473392</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.71335357452771597</v>
+        <v>0.60930767330437197</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.43988426165494898</v>
       </c>
       <c r="J13" s="1">
-        <v>-0.76932717815076002</v>
+        <v>-1.85233848404793</v>
       </c>
       <c r="K13" s="1">
-        <v>0.52492521469403997</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.79714613190529904</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.68501165105156203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-1.05251273855467</v>
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.37680074690121701</v>
       </c>
       <c r="E14" s="1">
-        <v>0.33017231323428098</v>
+        <v>0.70840675427717703</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1640,39 +1591,36 @@
         <v>38</v>
       </c>
       <c r="H14" s="1">
-        <v>10.161864897913601</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2.8674802699626498E-3</v>
+        <v>0.28291640009978902</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.59789223379307599</v>
       </c>
       <c r="J14" s="1">
-        <v>-1.6996385811861401</v>
+        <v>-1.01165097788697</v>
       </c>
       <c r="K14" s="1">
-        <v>-0.40538689592320098</v>
-      </c>
-      <c r="L14" s="2">
-        <v>8.6024408098879596E-2</v>
-      </c>
-      <c r="M14" s="4">
-        <v>8.6024408098879596E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.7652524716894</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.77985943538227298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-3.1254231770096098E-2</v>
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-0.536947649904852</v>
       </c>
       <c r="E15" s="1">
-        <v>0.33017209037546102</v>
+        <v>0.67596055438694003</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1681,39 +1629,36 @@
         <v>38</v>
       </c>
       <c r="H15" s="1">
-        <v>8.9605968479269296E-3</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.925081951398254</v>
+        <v>0.63098812333473697</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.43192618546883199</v>
       </c>
       <c r="J15" s="1">
-        <v>-0.67837963760630304</v>
+        <v>-1.8618059914729801</v>
       </c>
       <c r="K15" s="1">
-        <v>0.61587117406611103</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.78791069166327798</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.68501165105156203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2.7458891601155899E-2</v>
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.44517190800698903</v>
       </c>
       <c r="E16" s="1">
-        <v>0.32097137319278202</v>
+        <v>0.65731045619523698</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1722,39 +1667,36 @@
         <v>38</v>
       </c>
       <c r="H16" s="1">
-        <v>7.3186908887751404E-3</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.93227383080828996</v>
+        <v>0.45868487548365999</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.502341877437813</v>
       </c>
       <c r="J16" s="1">
-        <v>-0.60163343992506202</v>
+        <v>-0.84313291279726899</v>
       </c>
       <c r="K16" s="1">
-        <v>0.65655122312737402</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.73347672881125</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.68501165105156203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
       <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6.1677635082374498E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.45159565120144501</v>
       </c>
       <c r="E17" s="1">
-        <v>0.31853445941876402</v>
+        <v>0.55212870566752204</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1763,39 +1705,36 @@
         <v>38</v>
       </c>
       <c r="H17" s="1">
-        <v>3.7492343116883403E-2</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.84749740483948099</v>
+        <v>0.66898880151316098</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.418503702938755</v>
       </c>
       <c r="J17" s="1">
-        <v>-0.56263843321333695</v>
+        <v>-0.63055672673761498</v>
       </c>
       <c r="K17" s="1">
-        <v>0.68599370337808596</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.5337480291404999</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.68501165105156203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-0.26054284968927</v>
+        <v>29</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-1.0602767253829899</v>
       </c>
       <c r="E18" s="1">
-        <v>0.32217520108453501</v>
+        <v>0.53943793054217604</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1804,39 +1743,36 @@
         <v>38</v>
       </c>
       <c r="H18" s="1">
-        <v>0.65399450809419402</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.42372256109149098</v>
+        <v>3.8632738559545898</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5.6693425269209799E-2</v>
       </c>
       <c r="J18" s="1">
-        <v>-0.89199464052690802</v>
+        <v>-2.1175556411404699</v>
       </c>
       <c r="K18" s="1">
-        <v>0.37090894114836798</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-2.9978096255074398E-3</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.21260034475953701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-5.1039362131921603E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.22811151104566299</v>
       </c>
       <c r="E19" s="1">
-        <v>0.30011990060705401</v>
+        <v>0.631646398156405</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1845,39 +1781,36 @@
         <v>38</v>
       </c>
       <c r="H19" s="1">
-        <v>2.8921504971598299E-2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.86586260382296198</v>
+        <v>0.13042064830689901</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.71999642536972897</v>
       </c>
       <c r="J19" s="1">
-        <v>-0.63926355836548798</v>
+        <v>-1.0098926803053401</v>
       </c>
       <c r="K19" s="1">
-        <v>0.53718483410164497</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.46611570239666</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.86399571044367396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-0.43860493135226603</v>
+        <v>29</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-0.432043561675096</v>
       </c>
       <c r="E20" s="1">
-        <v>0.29496068204965498</v>
+        <v>0.61430102162087297</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1886,39 +1819,36 @@
         <v>38</v>
       </c>
       <c r="H20" s="1">
-        <v>2.21115283891801</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.145267432373237</v>
+        <v>0.494643834467696</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.48615015710565102</v>
       </c>
       <c r="J20" s="1">
-        <v>-1.01671724502496</v>
+        <v>-1.63605143971817</v>
       </c>
       <c r="K20" s="1">
-        <v>0.139507382320428</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.77196431636797702</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.68501165105156203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-0.29086822170804999</v>
+        <v>29</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-1.06792517859103</v>
       </c>
       <c r="E21" s="1">
-        <v>0.30644675839494101</v>
+        <v>0.59620227189206598</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1927,39 +1857,36 @@
         <v>38</v>
       </c>
       <c r="H21" s="1">
-        <v>0.90091224142728898</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.348535016695939</v>
+        <v>3.2084435219474701</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8.1226820350689899E-2</v>
       </c>
       <c r="J21" s="1">
-        <v>-0.89149283134118196</v>
+        <v>-2.23646015900044</v>
       </c>
       <c r="K21" s="1">
-        <v>0.30975638792508198</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.100609801818379</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.270756067835633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.15307773718296799</v>
+        <v>29</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.39072277631305902</v>
       </c>
       <c r="E22" s="1">
-        <v>0.31201606271051702</v>
+        <v>0.57682417598520097</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1968,39 +1895,36 @@
         <v>38</v>
       </c>
       <c r="H22" s="1">
-        <v>0.240696714991807</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.62652457541375906</v>
+        <v>0.458828670682771</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.50227529199801602</v>
       </c>
       <c r="J22" s="1">
-        <v>-0.45846250832763502</v>
+        <v>-0.73983183402993002</v>
       </c>
       <c r="K22" s="1">
-        <v>0.76461798269357095</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.5212773866560501</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.68501165105156203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-4.0294967051084497E-4</v>
+        <v>29</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-0.23698536800631501</v>
       </c>
       <c r="E23" s="1">
-        <v>0.31069431929971603</v>
+        <v>0.60819697456828903</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2009,39 +1933,36 @@
         <v>38</v>
       </c>
       <c r="H23" s="1">
-        <v>1.68203482974804E-6</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.99897198238168705</v>
+        <v>0.15182893797566099</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.69896901354093699</v>
       </c>
       <c r="J23" s="1">
-        <v>-0.60935262569914195</v>
+        <v>-1.4290295336663801</v>
       </c>
       <c r="K23" s="1">
-        <v>0.60854672635812002</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.95505879765375401</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.86399571044367396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-2.66989065183885E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-0.12024508827623299</v>
       </c>
       <c r="E24" s="1">
-        <v>0.31829335061219599</v>
+        <v>0.59759523897137301</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2050,39 +1971,36 @@
         <v>38</v>
       </c>
       <c r="H24" s="1">
-        <v>7.0360969918944801E-3</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.93359103866437498</v>
+        <v>4.0487450814746501E-2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.84160371866841099</v>
       </c>
       <c r="J24" s="1">
-        <v>-0.65054241023687298</v>
+        <v>-1.29151023399273</v>
       </c>
       <c r="K24" s="1">
-        <v>0.59714459720009605</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.0510200574402599</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.93511524296490101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-0.75512666168186604</v>
+        <v>29</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.5656005959224402</v>
       </c>
       <c r="E25" s="1">
-        <v>0.31687666467581499</v>
+        <v>0.59278380752682702</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2091,39 +2009,36 @@
         <v>38</v>
       </c>
       <c r="H25" s="1">
-        <v>5.6788329353772697</v>
-      </c>
-      <c r="I25" s="2">
-        <v>2.22749944326548E-2</v>
+        <v>18.7320553202375</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.05465328486087E-4</v>
       </c>
       <c r="J25" s="1">
-        <v>-1.3761935119876401</v>
+        <v>1.40376568255134</v>
       </c>
       <c r="K25" s="1">
-        <v>-0.13405981137609299</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.66824983297964402</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0.22274994432654799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3.7274355092935498</v>
+      </c>
+      <c r="L25" s="4">
+        <v>7.9098996364565196E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5.6994560057625702E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.72721483638265205</v>
       </c>
       <c r="E26" s="1">
-        <v>0.31872030916518101</v>
+        <v>0.58451373168828802</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2132,39 +2047,36 @@
         <v>38</v>
       </c>
       <c r="H26" s="1">
-        <v>3.1977708207685598E-2</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.85902662047409395</v>
+        <v>1.5478754945703299</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.221069144995198</v>
       </c>
       <c r="J26" s="1">
-        <v>-0.56768576704760099</v>
+        <v>-0.41841102619550002</v>
       </c>
       <c r="K26" s="1">
-        <v>0.68167488716285196</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.8728406989608</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.45650512890092898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5.3578046255553097E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1.59751125231211</v>
       </c>
       <c r="E27" s="1">
-        <v>0.29902643419482899</v>
+        <v>0.60449813384608897</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2173,39 +2085,36 @@
         <v>38</v>
       </c>
       <c r="H27" s="1">
-        <v>3.2103662539799002E-2</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.85875228751451105</v>
+        <v>6.9838985611013404</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.18800078303983E-2</v>
       </c>
       <c r="J27" s="1">
-        <v>-0.53250299519174804</v>
+        <v>-2.7823058233721198</v>
       </c>
       <c r="K27" s="1">
-        <v>0.63965908770285496</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.41271668125210498</v>
+      </c>
+      <c r="L27" s="4">
+        <v>7.1280046982390002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.18245718092688901</v>
+        <v>29</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-9.9666941819059399E-3</v>
       </c>
       <c r="E28" s="1">
-        <v>0.31260313492331399</v>
+        <v>0.62170035793154399</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2214,39 +2123,36 @@
         <v>38</v>
       </c>
       <c r="H28" s="1">
-        <v>0.34067107655451601</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.56289081326282697</v>
+        <v>2.5700408735028702E-4</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.98729326087149605</v>
       </c>
       <c r="J28" s="1">
-        <v>-0.43023370497712199</v>
+        <v>-1.22847700490339</v>
       </c>
       <c r="K28" s="1">
-        <v>0.7951480668309</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.20854361653958</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.98729326087149605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.79990287747526201</v>
+        <v>29</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.94738945475312797</v>
       </c>
       <c r="E29" s="1">
-        <v>0.32293377438686999</v>
+        <v>0.71952246754620197</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2255,39 +2161,36 @@
         <v>38</v>
       </c>
       <c r="H29" s="1">
-        <v>6.1354663846982698</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1.7814101743918599E-2</v>
+        <v>1.7336777420342</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.195828053022642</v>
       </c>
       <c r="J29" s="1">
-        <v>0.166964310285413</v>
+        <v>-0.46284866770481797</v>
       </c>
       <c r="K29" s="1">
-        <v>1.4328414446651101</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0.53442305231755705</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0.22274994432654799</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.35762757721107</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.45650512890092898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3">
-        <v>-0.131553245634243</v>
+        <v>29</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-2.82806665414236</v>
       </c>
       <c r="E30" s="1">
-        <v>0.31507139526447497</v>
+        <v>0.57998191245472897</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2296,39 +2199,36 @@
         <v>38</v>
       </c>
       <c r="H30" s="1">
-        <v>0.174335239311257</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.67863713858753705</v>
+        <v>23.776634551723301</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1.9534545294349699E-5</v>
       </c>
       <c r="J30" s="1">
-        <v>-0.74908183291139896</v>
+        <v>-3.96481031423829</v>
       </c>
       <c r="K30" s="1">
-        <v>0.48597534164291201</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0.99897198238168705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.6913229940464301</v>
+      </c>
+      <c r="L30" s="4">
+        <v>2.9301817941524598E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.117103834408184</v>
+      <c r="D31" s="2">
+        <v>2.8924597260510598</v>
       </c>
       <c r="E31" s="1">
-        <v>0.30230873167963401</v>
+        <v>0.62573755246726104</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2337,27 +2237,24 @@
         <v>38</v>
       </c>
       <c r="H31" s="1">
-        <v>0.150051675415626</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.70064716861846799</v>
+        <v>21.367327327013999</v>
+      </c>
+      <c r="I31" s="3">
+        <v>4.2852270792503102E-5</v>
       </c>
       <c r="J31" s="1">
-        <v>-0.47541039189588102</v>
+        <v>1.6660366594409901</v>
       </c>
       <c r="K31" s="1">
-        <v>0.70961806071224798</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0.99897198238168705</v>
+        <v>4.1188827926611298</v>
+      </c>
+      <c r="L31" s="4">
+        <v>4.2852270792503102E-4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:M31">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="L2:L31">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2371,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,19 +2279,18 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2300,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2419,7 +2315,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2428,28 +2324,25 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.81260036364404598</v>
+      <c r="D2" s="2">
+        <v>0.531867997580179</v>
       </c>
       <c r="E2" s="1">
-        <v>0.19981287325907199</v>
+        <v>0.40821392919824601</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2458,39 +2351,36 @@
         <v>39</v>
       </c>
       <c r="H2" s="1">
-        <v>16.538918034788399</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2.2415185913260099E-4</v>
+        <v>1.6975871526368</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.200244593636003</v>
       </c>
       <c r="J2" s="1">
-        <v>0.420974328408799</v>
+        <v>-0.268216601635967</v>
       </c>
       <c r="K2" s="1">
-        <v>1.2042263988792901</v>
-      </c>
-      <c r="L2" s="2">
-        <v>6.7245557739780398E-3</v>
-      </c>
-      <c r="M2" s="4">
-        <v>6.7245557739780398E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.3319525967963199</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.41514850510177798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-0.49110178115714098</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-0.60963879877141902</v>
       </c>
       <c r="E3" s="1">
-        <v>0.18801212578701301</v>
+        <v>0.384230160981055</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2499,39 +2389,36 @@
         <v>39</v>
       </c>
       <c r="H3" s="1">
-        <v>6.8229360193306503</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1.2712430754642901E-2</v>
+        <v>2.5174583368919401</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.120667740401253</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.85959877635650095</v>
+        <v>-1.3627160760683099</v>
       </c>
       <c r="K3" s="1">
-        <v>-0.12260478595778</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.38137292263928602</v>
-      </c>
-      <c r="M3" s="4">
-        <v>9.5343230659821601E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.143438478525476</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.30166935100313103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.18071325128021101</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.8887479053568003E-2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.20593028783841899</v>
+        <v>0.42063463544472401</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2540,39 +2427,36 @@
         <v>39</v>
       </c>
       <c r="H4" s="1">
-        <v>0.77008656371210804</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.38556439190740599</v>
+        <v>4.4655105376858399E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.83373987606600597</v>
       </c>
       <c r="J4" s="1">
-        <v>-0.22290269620905601</v>
+        <v>-0.73554125706822604</v>
       </c>
       <c r="K4" s="1">
-        <v>0.58432919876947897</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.96893955416214606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.91331621517536199</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.92637764007334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.176707105080289</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.49706836578456998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.215714383381373</v>
+        <v>0.38787061842627701</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2581,39 +2465,36 @@
         <v>39</v>
       </c>
       <c r="H5" s="1">
-        <v>0.67104217481199302</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.41766639743689898</v>
+        <v>1.64232265738223</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.20757425255088899</v>
       </c>
       <c r="J5" s="1">
-        <v>-0.59949952745504598</v>
+        <v>-0.26314407699221198</v>
       </c>
       <c r="K5" s="1">
-        <v>0.246085317294467</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.96893955416214606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.25728080856135</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.41514850510177798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.226008467317069</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.35355836576635902</v>
       </c>
       <c r="E6" s="1">
-        <v>0.21516060606057799</v>
+        <v>0.37293749401669302</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2622,39 +2503,36 @@
         <v>39</v>
       </c>
       <c r="H6" s="1">
-        <v>1.10337693798418</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.29999182240286298</v>
+        <v>0.89877325220819204</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.34894858983094601</v>
       </c>
       <c r="J6" s="1">
-        <v>-0.64771550608761197</v>
+        <v>-1.0845024225237001</v>
       </c>
       <c r="K6" s="1">
-        <v>0.195698571453474</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.96893955416214606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.37738569099098102</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.49849798547278101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.40781646650674303</v>
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-8.4264424809647701E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.19724631221424299</v>
+        <v>0.39350047712608699</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2663,39 +2541,36 @@
         <v>39</v>
       </c>
       <c r="H7" s="1">
-        <v>4.2747599352054397</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4.53630082089196E-2</v>
+        <v>4.5856192799904202E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.83155311546346899</v>
       </c>
       <c r="J7" s="1">
-        <v>-0.79441213453000303</v>
+        <v>-0.85551118787610603</v>
       </c>
       <c r="K7" s="1">
-        <v>-2.1220798483483301E-2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.25395853135513702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.68698233825681099</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.92637764007334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-6.0734595283334303E-2</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-0.57523745902587997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.209273938723012</v>
+        <v>0.38156583829975799</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2704,39 +2579,36 @@
         <v>39</v>
       </c>
       <c r="H8" s="1">
-        <v>8.4225187653096001E-2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.77318876096674005</v>
+        <v>2.27276926602566</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.139722980858867</v>
       </c>
       <c r="J8" s="1">
-        <v>-0.47090397808327999</v>
+        <v>-1.3230927598242399</v>
       </c>
       <c r="K8" s="1">
-        <v>0.349434787516612</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.17261784177247799</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.32243764813584802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-5.2072870605137399E-2</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-0.100325059194382</v>
       </c>
       <c r="E9" s="1">
-        <v>0.21574526515445799</v>
+        <v>0.40084927052934</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2745,39 +2617,36 @@
         <v>39</v>
       </c>
       <c r="H9" s="1">
-        <v>5.8255977331670303E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.81053850768351199</v>
+        <v>6.2640707479083499E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.80368363718771296</v>
       </c>
       <c r="J9" s="1">
-        <v>-0.47492582014291901</v>
+        <v>-0.88597519266104097</v>
       </c>
       <c r="K9" s="1">
-        <v>0.37078007893264397</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.68532507427227696</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.92637764007334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-7.7421455982543005E-2</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-2.5381785712224798</v>
       </c>
       <c r="E10" s="1">
-        <v>0.20537077693177899</v>
+        <v>0.390429940379172</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2786,39 +2655,36 @@
         <v>39</v>
       </c>
       <c r="H10" s="1">
-        <v>0.142116785775694</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.70822919067374301</v>
+        <v>42.262785498577003</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.04510814551289E-7</v>
       </c>
       <c r="J10" s="1">
-        <v>-0.47994078224584003</v>
+        <v>-3.3034071928517799</v>
       </c>
       <c r="K10" s="1">
-        <v>0.32509787028075299</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.77294994959319</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1.0451081455128901E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-0.31456716013311697</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.47415677961653602</v>
       </c>
       <c r="E11" s="1">
-        <v>0.21755823404222199</v>
+        <v>0.38327770735114802</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2827,39 +2693,36 @@
         <v>39</v>
       </c>
       <c r="H11" s="1">
-        <v>2.09062294908769</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.15619452344920401</v>
+        <v>1.5304417658517799</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.22344361299749399</v>
       </c>
       <c r="J11" s="1">
-        <v>-0.740973463396009</v>
+        <v>-0.27705372286879698</v>
       </c>
       <c r="K11" s="1">
-        <v>0.111839143129774</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.66940510049658897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.22536728210187</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.41895677437030099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-7.9843747734342704E-2</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.89992700738253395</v>
       </c>
       <c r="E12" s="1">
-        <v>0.211113064695128</v>
+        <v>0.38344650937029101</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2868,39 +2731,36 @@
         <v>39</v>
       </c>
       <c r="H12" s="1">
-        <v>0.14303805856274099</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.70733012032138598</v>
+        <v>5.5081402987466399</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.4100186614308901E-2</v>
       </c>
       <c r="J12" s="1">
-        <v>-0.49361775120266799</v>
+        <v>-1.6514683557459</v>
       </c>
       <c r="K12" s="1">
-        <v>0.333930255733982</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.14838565901916301</v>
+      </c>
+      <c r="L12" s="4">
+        <v>7.2300559842926604E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-0.18439978344267799</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-8.8245797328199895E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>0.20477493015669701</v>
+        <v>0.38652602165814098</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2909,39 +2769,36 @@
         <v>39</v>
       </c>
       <c r="H13" s="1">
-        <v>0.81089988795817103</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.37338155677429502</v>
+        <v>5.2123142255865195E-4</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.98190189814099604</v>
       </c>
       <c r="J13" s="1">
-        <v>-0.58575127148650996</v>
+        <v>-0.76640166127032505</v>
       </c>
       <c r="K13" s="1">
-        <v>0.21695170460115301</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0.96893955416214606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.748752501804685</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.98383567344552803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.44077243586952902</v>
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.0535162066161101</v>
       </c>
       <c r="E14" s="1">
-        <v>0.218702478194089</v>
+        <v>0.37544634427377099</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2950,39 +2807,36 @@
         <v>39</v>
       </c>
       <c r="H14" s="1">
-        <v>4.0618272317658297</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5.0791706271027297E-2</v>
+        <v>29.915792312670099</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2.8215091093673899E-6</v>
       </c>
       <c r="J14" s="1">
-        <v>1.21234552794577E-2</v>
+        <v>1.3176548937122901</v>
       </c>
       <c r="K14" s="1">
-        <v>0.86942141645960003</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.25395853135513702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.7893775195199302</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1.6929054656204299E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3.9693181783561002E-3</v>
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.41750387712549097</v>
       </c>
       <c r="E15" s="1">
-        <v>0.21236894861970099</v>
+        <v>0.38051098963129498</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2991,39 +2845,36 @@
         <v>39</v>
       </c>
       <c r="H15" s="1">
-        <v>3.4934118763414198E-4</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.98518316687478802</v>
+        <v>1.20388947394431</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.27927430720209301</v>
       </c>
       <c r="J15" s="1">
-        <v>-0.41226617255089598</v>
+        <v>-0.32828395827354001</v>
       </c>
       <c r="K15" s="1">
-        <v>0.42020480890760797</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.99549939924326403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.1632917125245199</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.46545717867015601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.18007843393671799</v>
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.6317464196725899</v>
       </c>
       <c r="E16" s="1">
-        <v>0.22088429471593601</v>
+        <v>0.38255806243436502</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3032,39 +2883,36 @@
         <v>39</v>
       </c>
       <c r="H16" s="1">
-        <v>0.664651110385999</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.41987380680359698</v>
+        <v>18.193263874306901</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.2287744581660799E-4</v>
       </c>
       <c r="J16" s="1">
-        <v>-0.25284682845704698</v>
+        <v>0.88194639530580998</v>
       </c>
       <c r="K16" s="1">
-        <v>0.61300369633048202</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.96893955416214606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.3815464440393699</v>
+      </c>
+      <c r="L16" s="4">
+        <v>5.26617624928319E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5.70570153824142E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.22254759361468701</v>
       </c>
       <c r="E17" s="1">
-        <v>0.229561922223014</v>
+        <v>0.44172530338899002</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3073,39 +2921,36 @@
         <v>39</v>
       </c>
       <c r="H17" s="1">
-        <v>6.1775802414325502E-2</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.80501510269535004</v>
+        <v>0.25382900649961199</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.61722601854394799</v>
       </c>
       <c r="J17" s="1">
-        <v>-0.39287608439647798</v>
+        <v>-0.64321809208776204</v>
       </c>
       <c r="K17" s="1">
-        <v>0.50699011516130599</v>
-      </c>
-      <c r="L17" s="2">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.0883132793171399</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.77153252317993504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-8.7002661691681804E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-0.48388523880582202</v>
       </c>
       <c r="E18" s="1">
-        <v>0.23134657707621201</v>
+        <v>0.42980539911235</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3114,39 +2959,36 @@
         <v>39</v>
       </c>
       <c r="H18" s="1">
-        <v>0.14142914704437601</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.70890243495059402</v>
+        <v>1.26747970598475</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.26712051966620498</v>
       </c>
       <c r="J18" s="1">
-        <v>-0.54043362070767598</v>
+        <v>-1.32628834142689</v>
       </c>
       <c r="K18" s="1">
-        <v>0.36642829732431298</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.35851786381524697</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.46545717867015601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5.3292906981454197E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5.9422456146571302E-2</v>
       </c>
       <c r="E19" s="1">
-        <v>0.226786619275922</v>
+        <v>0.44442672850656201</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -3155,39 +2997,36 @@
         <v>39</v>
       </c>
       <c r="H19" s="1">
-        <v>5.5220961836834198E-2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.81544489238679396</v>
+        <v>1.78772559180558E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.89432275548165197</v>
       </c>
       <c r="J19" s="1">
-        <v>-0.39120069897495002</v>
+        <v>-0.81163792549325098</v>
       </c>
       <c r="K19" s="1">
-        <v>0.49778651293785797</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.93048283778639296</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.958202952301769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4.5847649674931303E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.46789898747839198</v>
       </c>
       <c r="E20" s="1">
-        <v>0.22878488599978999</v>
+        <v>0.44357911702387098</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -3196,39 +3035,36 @@
         <v>39</v>
       </c>
       <c r="H20" s="1">
-        <v>4.0158685856531103E-2</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.84221200884090697</v>
+        <v>1.11265884995895</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.29799582169442401</v>
       </c>
       <c r="J20" s="1">
-        <v>-0.40256248709175901</v>
+        <v>-0.40150010618247201</v>
       </c>
       <c r="K20" s="1">
-        <v>0.49425778644162099</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.3372980811392601</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.47051971846488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3">
-        <v>7.7674912951950406E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.747961858750263</v>
       </c>
       <c r="E21" s="1">
-        <v>0.23248337369310601</v>
+        <v>0.42821115448993202</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3237,39 +3073,36 @@
         <v>39</v>
       </c>
       <c r="H21" s="1">
-        <v>0.111629184460484</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.74008693552161098</v>
+        <v>3.05100523122255</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8.8559547177356299E-2</v>
       </c>
       <c r="J21" s="1">
-        <v>-0.37798412649090402</v>
+        <v>-9.1316581828319907E-2</v>
       </c>
       <c r="K21" s="1">
-        <v>0.53333395239480497</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.5872402993288499</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.241526037756426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-3.1905396806820398E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-0.36395563154032001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.229207734558663</v>
+        <v>0.44215441896454699</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3278,39 +3111,36 @@
         <v>39</v>
       </c>
       <c r="H22" s="1">
-        <v>1.9376251516537199E-2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.890009553341091</v>
+        <v>0.67756185411727299</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.41543265175217797</v>
       </c>
       <c r="J22" s="1">
-        <v>-0.48114430151981602</v>
+        <v>-1.23056236831607</v>
       </c>
       <c r="K22" s="1">
-        <v>0.41733350790617602</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0.98889950371232305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.502651105235425</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.56649907057115201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-0.12579354660882</v>
+        <v>29</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-1.46234404746165</v>
       </c>
       <c r="E23" s="1">
-        <v>0.22961950005397599</v>
+        <v>0.44197774374931098</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3319,39 +3149,36 @@
         <v>39</v>
       </c>
       <c r="H23" s="1">
-        <v>0.300122938134745</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.58692739868121502</v>
+        <v>10.9470807638296</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2.0232268341165401E-3</v>
       </c>
       <c r="J23" s="1">
-        <v>-0.57583949686270697</v>
+        <v>-2.3286045071785701</v>
       </c>
       <c r="K23" s="1">
-        <v>0.32425240364506602</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.59608358774472603</v>
+      </c>
+      <c r="L23" s="4">
+        <v>7.5871006279370099E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="3">
-        <v>6.4260393597093901E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.42706305224010499</v>
       </c>
       <c r="E24" s="1">
-        <v>0.23114934900385201</v>
+        <v>0.42081546997939101</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3360,39 +3187,36 @@
         <v>39</v>
       </c>
       <c r="H24" s="1">
-        <v>7.7286103687105104E-2</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.78247802395814103</v>
+        <v>1.0299131551443499</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.31643394951785803</v>
       </c>
       <c r="J24" s="1">
-        <v>-0.38878400550033498</v>
+        <v>-0.397720113056798</v>
       </c>
       <c r="K24" s="1">
-        <v>0.51730479269452301</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.25184621753701</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.47465092427678801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3">
-        <v>-0.69744457799825799</v>
+        <v>29</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-7.0721372798752897</v>
       </c>
       <c r="E25" s="1">
-        <v>0.228216100308817</v>
+        <v>0.44590368063888303</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3401,39 +3225,36 @@
         <v>39</v>
       </c>
       <c r="H25" s="1">
-        <v>9.3395692101555703</v>
-      </c>
-      <c r="I25" s="2">
-        <v>4.0346935263594497E-3</v>
+        <v>251.54706261940501</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.3376213282744099E-18</v>
       </c>
       <c r="J25" s="1">
-        <v>-1.1447399152957201</v>
+        <v>-7.9460924345013497</v>
       </c>
       <c r="K25" s="1">
-        <v>-0.25014924070079703</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.121040805790784</v>
-      </c>
-      <c r="M25" s="4">
-        <v>4.0346935263594501E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-6.1981821252492297</v>
+      </c>
+      <c r="L25" s="4">
+        <v>4.0128639848232403E-17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="3">
-        <v>7.0039095039343101E-3</v>
+        <v>29</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-8.8548939409859202E-3</v>
       </c>
       <c r="E26" s="1">
-        <v>0.22985798813139999</v>
+        <v>0.43426148154791899</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3442,39 +3263,36 @@
         <v>39</v>
       </c>
       <c r="H26" s="1">
-        <v>9.2845711674050598E-4</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.97584714746535195</v>
+        <v>4.1578049146255097E-4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.98383567344552803</v>
       </c>
       <c r="J26" s="1">
-        <v>-0.44350946879244502</v>
+        <v>-0.85999175764791203</v>
       </c>
       <c r="K26" s="1">
-        <v>0.45751728780031398</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0.99549939924326403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.84228196976594005</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.98383567344552803</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="3">
-        <v>-0.13566230569179399</v>
+        <v>29</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-2.7071369493307502</v>
       </c>
       <c r="E27" s="1">
-        <v>0.229298024066247</v>
+        <v>0.44570042866135201</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3483,39 +3301,36 @@
         <v>39</v>
       </c>
       <c r="H27" s="1">
-        <v>0.35004007110429403</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.55750466320654302</v>
+        <v>36.892182596505201</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4.0887354250860498E-7</v>
       </c>
       <c r="J27" s="1">
-        <v>-0.58507817458783595</v>
+        <v>-3.5806937374010701</v>
       </c>
       <c r="K27" s="1">
-        <v>0.31375356320424702</v>
-      </c>
-      <c r="L27" s="2">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-1.8335801612604401</v>
+      </c>
+      <c r="L27" s="4">
+        <v>3.0665515688145298E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
       <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="3">
-        <v>-1.3210537473481701E-3</v>
+        <v>29</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.26888242890674602</v>
       </c>
       <c r="E28" s="1">
-        <v>0.23270409851319501</v>
+        <v>0.43794895768611403</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3524,39 +3339,36 @@
         <v>39</v>
       </c>
       <c r="H28" s="1">
-        <v>3.2227966846228297E-5</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.99549939924326403</v>
+        <v>0.37694488206294502</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.54280780215936997</v>
       </c>
       <c r="J28" s="1">
-        <v>-0.45741270588807098</v>
+        <v>-0.58948175522489399</v>
       </c>
       <c r="K28" s="1">
-        <v>0.45477059839337503</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0.99549939924326403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.12724661303839</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.70801017672961297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.73667246656643803</v>
+        <v>29</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3.20616699837093</v>
       </c>
       <c r="E29" s="1">
-        <v>0.229627035420538</v>
+        <v>0.44639439580800999</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -3565,39 +3377,36 @@
         <v>39</v>
       </c>
       <c r="H29" s="1">
-        <v>10.292072541712599</v>
-      </c>
-      <c r="I29" s="2">
-        <v>2.6706981791324602E-3</v>
+        <v>51.586351345106301</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1.20569840009312E-8</v>
       </c>
       <c r="J29" s="1">
-        <v>0.28661174726548</v>
+        <v>2.3312500596867198</v>
       </c>
       <c r="K29" s="1">
-        <v>1.1867331858674</v>
-      </c>
-      <c r="L29" s="2">
-        <v>8.0120945373973698E-2</v>
-      </c>
-      <c r="M29" s="4">
-        <v>4.0060472686986801E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4.0810839370551504</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1.8085476001396799E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3">
-        <v>-4.85545535142137E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-1.32160057554744</v>
       </c>
       <c r="E30" s="1">
-        <v>0.230053411467561</v>
+        <v>0.44618503684754202</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3606,39 +3415,36 @@
         <v>39</v>
       </c>
       <c r="H30" s="1">
-        <v>4.4545370365751298E-2</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.83394119084978102</v>
+        <v>8.7734505907721001</v>
+      </c>
+      <c r="I30" s="3">
+        <v>5.1833093994666296E-3</v>
       </c>
       <c r="J30" s="1">
-        <v>-0.49945095451120802</v>
+        <v>-2.1961071782092998</v>
       </c>
       <c r="K30" s="1">
-        <v>0.40234184748278001</v>
-      </c>
-      <c r="L30" s="2">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0.97178308712412298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.44709397288557901</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1.72776979982221E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
         <v>29</v>
       </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.20277062132597901</v>
+      <c r="D31" s="2">
+        <v>1.9253432192536499</v>
       </c>
       <c r="E31" s="1">
-        <v>0.22927185722864701</v>
+        <v>0.439891970176985</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3647,27 +3453,24 @@
         <v>39</v>
       </c>
       <c r="H31" s="1">
-        <v>0.78218334773582199</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.38189432498936798</v>
+        <v>19.1568567085537</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8.7364418284525302E-5</v>
       </c>
       <c r="J31" s="1">
-        <v>-0.246593961510778</v>
+        <v>1.06317080061839</v>
       </c>
       <c r="K31" s="1">
-        <v>0.65213520416273496</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0.96893955416214606</v>
+        <v>2.7875156378888999</v>
+      </c>
+      <c r="L31" s="4">
+        <v>4.3682209142262599E-4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M2:M31">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="L2:L31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
